--- a/websitetesttoeic.frontend/public/LuanVan_Demo/Excel.xlsx
+++ b/websitetesttoeic.frontend/public/LuanVan_Demo/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ty\websitetesttoeic.frontend\public\LuanVan_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E08BC-1C02-4A14-8E58-AA43148D4A2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1664E1BC-3A87-47CB-B1A4-142E8D8C7AC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>ContentAnswer</t>
   </si>
@@ -361,7 +361,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:L10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -544,9 +544,7 @@
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>

--- a/websitetesttoeic.frontend/public/LuanVan_Demo/Excel.xlsx
+++ b/websitetesttoeic.frontend/public/LuanVan_Demo/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ty\websitetesttoeic.frontend\public\LuanVan_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1664E1BC-3A87-47CB-B1A4-142E8D8C7AC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D3289E-22EF-448B-9B61-E0502B0E486A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>ContentAnswer</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>audioFile</t>
+  </si>
+  <si>
+    <t>answerDetail</t>
   </si>
 </sst>
 </file>
@@ -358,10 +361,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -373,7 +376,7 @@
     <col min="6" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -402,10 +405,13 @@
         <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -432,8 +438,9 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -456,8 +463,9 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -480,8 +488,9 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -504,8 +513,9 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -528,8 +538,9 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -550,8 +561,9 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
